--- a/results/cps_bn_res_presentation.xlsx
+++ b/results/cps_bn_res_presentation.xlsx
@@ -394,7 +394,7 @@
         <v>0.9603790863925747</v>
       </c>
       <c r="D2">
-        <v>0.960104987697219</v>
+        <v>0.9600028351039024</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>0.960393246950016</v>
       </c>
       <c r="D3">
-        <v>0.9600847628681628</v>
+        <v>0.9599866556332206</v>
       </c>
     </row>
     <row r="4">
@@ -430,7 +430,7 @@
         <v>0.9604114454118637</v>
       </c>
       <c r="D4">
-        <v>0.9601049918808536</v>
+        <v>0.9600028386553874</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         <v>0.9603932468095454</v>
       </c>
       <c r="D5">
-        <v>0.9601100470208781</v>
+        <v>0.9600068829554707</v>
       </c>
     </row>
     <row r="6">
@@ -466,7 +466,7 @@
         <v>0.9603939816638981</v>
       </c>
       <c r="D6">
-        <v>0.9601013045772184</v>
+        <v>0.9600015659844194</v>
       </c>
     </row>
     <row r="7">
@@ -484,7 +484,7 @@
         <v>0.9797911737548894</v>
       </c>
       <c r="D7">
-        <v>0.9796463403922093</v>
+        <v>0.9795931801315578</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>0.9797965239004084</v>
       </c>
       <c r="D8">
-        <v>0.9674680586395131</v>
+        <v>0.9698505548337465</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +520,7 @@
         <v>0.9019285354784449</v>
       </c>
       <c r="D9">
-        <v>0.9796476048726547</v>
+        <v>0.9698552023606671</v>
       </c>
     </row>
     <row r="10">
@@ -538,7 +538,7 @@
         <v>0.9797965234980097</v>
       </c>
       <c r="D10">
-        <v>0.9796489733260294</v>
+        <v>0.9795952865829808</v>
       </c>
     </row>
     <row r="11">
@@ -556,7 +556,7 @@
         <v>0.9797969069048197</v>
       </c>
       <c r="D11">
-        <v>0.979644421416382</v>
+        <v>0.9795925180903318</v>
       </c>
     </row>
     <row r="12">
@@ -574,7 +574,7 @@
         <v>0.2199970510795156</v>
       </c>
       <c r="D12">
-        <v>0.2137489468141127</v>
+        <v>0.2189991574512901</v>
       </c>
     </row>
     <row r="13">
@@ -592,7 +592,7 @@
         <v>0.22</v>
       </c>
       <c r="D13">
-        <v>0.2137582882659236</v>
+        <v>0.2190066306127389</v>
       </c>
     </row>
     <row r="14">
@@ -610,7 +610,7 @@
         <v>0.2201137334887335</v>
       </c>
       <c r="D14">
-        <v>0.2137489465919336</v>
+        <v>0.2190124807076091</v>
       </c>
     </row>
     <row r="15">
@@ -628,7 +628,7 @@
         <v>0.22</v>
       </c>
       <c r="D15">
-        <v>0.21375</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="16">
@@ -646,7 +646,7 @@
         <v>0.22</v>
       </c>
       <c r="D16">
-        <v>0.21375</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="17">
@@ -664,7 +664,7 @@
         <v>0.8000166329954801</v>
       </c>
       <c r="D17">
-        <v>0.799998951122299</v>
+        <v>0.7999991608978393</v>
       </c>
     </row>
     <row r="18">
@@ -682,7 +682,7 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="D18">
-        <v>0.8000067309523511</v>
+        <v>0.8000053847618809</v>
       </c>
     </row>
     <row r="19">
@@ -700,7 +700,7 @@
         <v>0.8000918629649005</v>
       </c>
       <c r="D19">
-        <v>0.800011280428524</v>
+        <v>0.8000186295020535</v>
       </c>
     </row>
     <row r="20">
